--- a/flexure/nires/tiptilt_log.xlsx
+++ b/flexure/nires/tiptilt_log.xlsx
@@ -15,12 +15,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="66">
+  <si>
+    <t>1 - 4</t>
+  </si>
+  <si>
+    <t>5 - 8</t>
+  </si>
+  <si>
+    <t>9 - 12</t>
+  </si>
+  <si>
+    <t>13 - 16</t>
+  </si>
+  <si>
+    <t>17-20</t>
+  </si>
+  <si>
+    <t>21 - 24</t>
+  </si>
+  <si>
+    <t>25-28</t>
+  </si>
+  <si>
+    <t>29-32</t>
+  </si>
+  <si>
+    <t>33-36</t>
+  </si>
+  <si>
+    <t>37-40</t>
+  </si>
+  <si>
+    <t>2.9/10</t>
+  </si>
   <si>
     <t>41-44</t>
-  </si>
-  <si>
-    <t>2.9/10</t>
   </si>
   <si>
     <t>45-48</t>
@@ -257,8 +287,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -279,10 +317,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -291,144 +329,222 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="D1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="D9" s="1" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>1</v>
-      </c>
+      <c r="B10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -438,11 +554,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>-10</v>
+        <v>25</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -452,11 +570,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>-15</v>
+        <v>30</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -466,11 +586,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-20</v>
+        <v>35</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -480,11 +602,13 @@
         <v>0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>-25</v>
+        <v>40</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -494,11 +618,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>-30</v>
+        <v>45</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -508,11 +634,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>-35</v>
+        <v>30</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -522,11 +650,13 @@
         <v>0</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>-40</v>
+        <v>15</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -536,11 +666,13 @@
         <v>0</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -550,11 +682,13 @@
         <v>0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -564,11 +698,13 @@
         <v>0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -578,150 +714,150 @@
         <v>0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>-15</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>-1</v>
+        <v>-20</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>-1</v>
+        <v>-25</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>-1</v>
+        <v>-30</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>-1</v>
+        <v>-35</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>-2</v>
+        <v>-40</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>-2</v>
+        <v>-45</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>-30</v>
       </c>
-      <c r="C29" s="0" t="n">
-        <v>-2</v>
-      </c>
       <c r="D29" s="0" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>-2</v>
+        <v>-15</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>-45</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,13 +865,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -743,13 +879,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>-55</v>
+        <v>-5</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,13 +893,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>-45</v>
+        <v>-10</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,13 +907,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>-30</v>
+        <v>-15</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -785,13 +921,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -799,13 +935,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -813,189 +949,173 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>5</v>
+        <v>-35</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>10</v>
+        <v>-40</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>15</v>
+        <v>-45</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>20</v>
+        <v>-50</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>25</v>
+        <v>-55</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>30</v>
+        <v>-45</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>35</v>
+        <v>-30</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>40</v>
+        <v>-15</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <f aca="false">+2.8</f>
-        <v>2.8</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1003,13 +1123,16 @@
         <v>52</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1017,13 +1140,16 @@
         <v>53</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,13 +1157,16 @@
         <v>54</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,13 +1174,160 @@
         <v>55</v>
       </c>
       <c r="B54" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <f aca="false">+2.8</f>
+        <v>2.8</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C63" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="D63" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="C64" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
